--- a/src/main/resources/testData/TestData.xlsx
+++ b/src/main/resources/testData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Framework\AbekaAutomationFW\src\main\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,21 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>rcg@pcci.edu</t>
   </si>
   <si>
     <t>RCG1234</t>
-  </si>
-  <si>
-    <t>syed.rcg</t>
-  </si>
-  <si>
-    <t>krupal.rcg</t>
-  </si>
-  <si>
-    <t>RCG123</t>
   </si>
   <si>
     <t>UserName</t>
@@ -51,7 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,12 +56,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,10 +79,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,48 +363,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.6">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
